--- a/data/trans_dic/P3A_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3260354133250144</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3275973868120582</v>
+        <v>0.3275973868120581</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2807201761107286</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2384327152854704</v>
+        <v>0.2394524101801801</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3125189215163368</v>
+        <v>0.3101986134938244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3532582278704333</v>
+        <v>0.3475240706461286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3493574126696442</v>
+        <v>0.346136155241126</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2334780066551632</v>
+        <v>0.230076193379191</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2509878102781463</v>
+        <v>0.2569668430787858</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2800845689422034</v>
+        <v>0.2725731352963238</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2926848024790228</v>
+        <v>0.2946738495417754</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2513215144058252</v>
+        <v>0.2465316932699988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3026035304736712</v>
+        <v>0.3015773010114539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3343644414428697</v>
+        <v>0.3315127330715268</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3298013619056181</v>
+        <v>0.3337726144330369</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.325006749842206</v>
+        <v>0.3292825286883658</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4067358983544023</v>
+        <v>0.4061035359094994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4575538215211357</v>
+        <v>0.4469958222949795</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4300216151951536</v>
+        <v>0.4330475922733182</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3335874549103786</v>
+        <v>0.3347941959428372</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3592982549666573</v>
+        <v>0.3697542566945718</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3785873940600079</v>
+        <v>0.3783932626647739</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.368137967585884</v>
+        <v>0.3664494482334859</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3148129459079805</v>
+        <v>0.3161844050199576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3738256540217576</v>
+        <v>0.373331879970518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4030706721711991</v>
+        <v>0.4044737639641248</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3875674514213389</v>
+        <v>0.3868292735803172</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4766762716946004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3495810535323232</v>
+        <v>0.349581053532323</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.231007733228356</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2326894837970559</v>
+        <v>0.2314671120895165</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3128685042806915</v>
+        <v>0.3188159440772635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4295616119152672</v>
+        <v>0.4195038339930021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3057454598988256</v>
+        <v>0.3072084605956035</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1884430397744868</v>
+        <v>0.1849726721317229</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1891570644523048</v>
+        <v>0.1933537302590023</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2829388786953948</v>
+        <v>0.2826804660254322</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2392612129682168</v>
+        <v>0.233769555224005</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2233709888749195</v>
+        <v>0.2219604894120225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2716367730564396</v>
+        <v>0.2745209493811239</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3652682885811611</v>
+        <v>0.3676996103951479</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2862050708261473</v>
+        <v>0.2840538022212268</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3300993482990276</v>
+        <v>0.3256235256377879</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.414127424381843</v>
+        <v>0.4122714720695118</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5319575690371103</v>
+        <v>0.5329038297240477</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3989015265736056</v>
+        <v>0.3960723296857472</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2783155276523338</v>
+        <v>0.2745279092809651</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.292141755736596</v>
+        <v>0.2882064084104101</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3806653339127302</v>
+        <v>0.3789916111769746</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3103188706185274</v>
+        <v>0.3067882571905324</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2895961543740393</v>
+        <v>0.2870898386811688</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3429144886328012</v>
+        <v>0.344077875409002</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4365338924912394</v>
+        <v>0.4409793947454726</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3453082881559035</v>
+        <v>0.3432442051071866</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.379549131457538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.316336464827921</v>
+        <v>0.3163364648279209</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1214122907925432</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2134801079816939</v>
+        <v>0.2120074633615562</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2793261438759386</v>
+        <v>0.280868896822644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3371724082902685</v>
+        <v>0.3337351430243449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2694571987579801</v>
+        <v>0.2729423547473289</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07767586001889869</v>
+        <v>0.07266879543881058</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.151053820269108</v>
+        <v>0.1544932777794088</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2060776348539017</v>
+        <v>0.204076211344804</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1954620049900816</v>
+        <v>0.1888725081237157</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1842921467523069</v>
+        <v>0.1862325941424884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2544817982881264</v>
+        <v>0.2498752955049138</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3169695207056077</v>
+        <v>0.318869142858832</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2631727424102004</v>
+        <v>0.2577371846778421</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2885110473922994</v>
+        <v>0.2892604658111972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3548641924956472</v>
+        <v>0.3556638207716661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4246122599115021</v>
+        <v>0.4214786727460816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3636759295272016</v>
+        <v>0.3611370038689476</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.175634170296187</v>
+        <v>0.1778178445297235</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2506718299727178</v>
+        <v>0.2516103953663703</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3426849874722218</v>
+        <v>0.3478150566012011</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2940649903854167</v>
+        <v>0.2980797781201588</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.247590144995221</v>
+        <v>0.2506791577415281</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3148568902851516</v>
+        <v>0.3139519492804714</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3927953624800906</v>
+        <v>0.3924035725954947</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3318177248130437</v>
+        <v>0.3270477383360696</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2060214505733671</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2653453947751704</v>
+        <v>0.2653453947751703</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1776457091529028</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1834822300826883</v>
+        <v>0.1823205308430543</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2399535841796557</v>
+        <v>0.2441093478411266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3231083100095175</v>
+        <v>0.3228234613416004</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.268745744578602</v>
+        <v>0.269262780924178</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1088038680250598</v>
+        <v>0.1070011808996854</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1588217831920081</v>
+        <v>0.1579739142795065</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1817691665554882</v>
+        <v>0.1806181614246151</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2394572967395274</v>
+        <v>0.2380815407072714</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1597965267724331</v>
+        <v>0.1583213615019153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2150796231795639</v>
+        <v>0.2158310215087718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2708379460281993</v>
+        <v>0.270459902478096</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2650453600035114</v>
+        <v>0.2650687840822873</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2290281598882952</v>
+        <v>0.2288027377637565</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2944124636392972</v>
+        <v>0.2958930219778392</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3789493859649814</v>
+        <v>0.3780099416846727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3272929101997589</v>
+        <v>0.3289710147446079</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1570604783725863</v>
+        <v>0.1576696680345054</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2156985695516842</v>
+        <v>0.2137232660045242</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2378586660523078</v>
+        <v>0.2353736183309898</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2954402631666198</v>
+        <v>0.2913844148025491</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1962337648776356</v>
+        <v>0.1945589408296861</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2537913115077448</v>
+        <v>0.2556936221142823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3116205141610937</v>
+        <v>0.313471755526416</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3074152085609486</v>
+        <v>0.3070620619289848</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1302415043363486</v>
+        <v>0.1316009287259158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2003389739581916</v>
+        <v>0.2013230733826732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1951157424932236</v>
+        <v>0.1994567381748581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1817397395615617</v>
+        <v>0.1817026181803428</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05806364442718548</v>
+        <v>0.05833398289111237</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08678175931346262</v>
+        <v>0.08648671999954408</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1108659617749071</v>
+        <v>0.1073844143334379</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1673401848230312</v>
+        <v>0.1684786404125055</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09375320659043515</v>
+        <v>0.09152078404860953</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1378068324619068</v>
+        <v>0.140537683093368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1579912024424685</v>
+        <v>0.1589202726306642</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1826394362574383</v>
+        <v>0.1809185397220303</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2114194771869501</v>
+        <v>0.2136285588737045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.27754339989217</v>
+        <v>0.2799881763050867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2637733044842433</v>
+        <v>0.2694565800487965</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2578174523456291</v>
+        <v>0.2556269191023874</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1040895808853951</v>
+        <v>0.1072682187670723</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1363567331705962</v>
+        <v>0.1351272415987267</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1605875532798521</v>
+        <v>0.1592065745823821</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2112574166046466</v>
+        <v>0.21152809357012</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1354982578745624</v>
+        <v>0.135818737395474</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1827772789427798</v>
+        <v>0.1823750038573934</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2005456819498243</v>
+        <v>0.1989638773455258</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2224876887541592</v>
+        <v>0.2239720436511113</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09743141975247284</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08450160929418574</v>
+        <v>0.08450160929418575</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04934307306596665</v>
@@ -1394,34 +1394,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003912680454743432</v>
+        <v>0.003928660374962502</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01044090316536777</v>
+        <v>0.009873795238459604</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04778677037473955</v>
+        <v>0.04656042610881651</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05411532767437321</v>
+        <v>0.05313855656396037</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07952338016414914</v>
+        <v>0.08113560499368792</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06969802715568975</v>
+        <v>0.06857996995849594</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03983606640942863</v>
+        <v>0.03945852739241996</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04323585911794389</v>
+        <v>0.04326569248151801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0659684205225983</v>
+        <v>0.0669435701498426</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05805644252559696</v>
+        <v>0.0582754518196486</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02599221966114882</v>
+        <v>0.02965503116311818</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0208990599925768</v>
+        <v>0.02573440249353977</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0376634219084809</v>
+        <v>0.03580676175579718</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06138369624045825</v>
+        <v>0.0636827186089928</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07348396660493629</v>
+        <v>0.07333085392123748</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08410355481042514</v>
+        <v>0.08425932799743148</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.114697811760282</v>
+        <v>0.1156732295012983</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1035825828701986</v>
+        <v>0.1036948281634074</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06113841716049426</v>
+        <v>0.06143873041973683</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06927769784418691</v>
+        <v>0.06826097784801638</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09664373582564127</v>
+        <v>0.09643093505857181</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08846722738250296</v>
+        <v>0.08859908328785232</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3249506310880642</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2908791976548203</v>
+        <v>0.2908791976548204</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1199465341388054</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1938004251300076</v>
+        <v>0.1937761290270304</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2607856842956967</v>
+        <v>0.2595843443351681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3099458857116653</v>
+        <v>0.3085970727315245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2740501348648275</v>
+        <v>0.2744785997084297</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.108444745307939</v>
+        <v>0.1098958004990792</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1356768202754229</v>
+        <v>0.136689304528783</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1743370465550529</v>
+        <v>0.1723090404496716</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2024442077934769</v>
+        <v>0.2025295124072976</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1544261677102442</v>
+        <v>0.1537113527823895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2009240485198225</v>
+        <v>0.2006570319716563</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.243122227434714</v>
+        <v>0.2432097419169653</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2413374766274612</v>
+        <v>0.2416117557235569</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2231676891489621</v>
+        <v>0.2241474795330715</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2907622541082419</v>
+        <v>0.2899599109396132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3419345584290894</v>
+        <v>0.3413616840781602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3072409582121208</v>
+        <v>0.3067574363412396</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1309143395791964</v>
+        <v>0.1310703448065498</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.16106463484017</v>
+        <v>0.1614271816860854</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1997864592377175</v>
+        <v>0.198685835574348</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2254419881418728</v>
+        <v>0.2251793844217102</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1732689079960202</v>
+        <v>0.1727801390202645</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.221855649270035</v>
+        <v>0.2205990885107577</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2642995609866399</v>
+        <v>0.2657701500816332</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2620670225761111</v>
+        <v>0.2628017773808757</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>112753</v>
+        <v>113236</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>136637</v>
+        <v>135622</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>151237</v>
+        <v>148782</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>192362</v>
+        <v>190589</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>71603</v>
+        <v>70560</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>78924</v>
+        <v>80804</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>97205</v>
+        <v>94598</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>142752</v>
+        <v>143722</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>195924</v>
+        <v>192190</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>227456</v>
+        <v>226685</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>259191</v>
+        <v>256980</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>342450</v>
+        <v>346573</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>153694</v>
+        <v>155716</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>177829</v>
+        <v>177553</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>195887</v>
+        <v>191367</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>236778</v>
+        <v>238444</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>102305</v>
+        <v>102675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>112983</v>
+        <v>116271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>131391</v>
+        <v>131323</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>179553</v>
+        <v>178730</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>245420</v>
+        <v>246489</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>280992</v>
+        <v>280621</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>312450</v>
+        <v>313538</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>402431</v>
+        <v>401665</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>85382</v>
+        <v>84933</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>131028</v>
+        <v>133519</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>162042</v>
+        <v>158248</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>147592</v>
+        <v>148298</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>70075</v>
+        <v>68785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>63937</v>
+        <v>65356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>105331</v>
+        <v>105234</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>101242</v>
+        <v>98918</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>165026</v>
+        <v>163984</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>205577</v>
+        <v>207760</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>273769</v>
+        <v>275591</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>259265</v>
+        <v>257316</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>121125</v>
+        <v>119482</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>173435</v>
+        <v>172658</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>200669</v>
+        <v>201026</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>192561</v>
+        <v>191196</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>103496</v>
+        <v>102087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>98747</v>
+        <v>97417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>141711</v>
+        <v>141088</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131309</v>
+        <v>129815</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>213953</v>
+        <v>212102</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>259520</v>
+        <v>260401</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>327182</v>
+        <v>330514</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>312805</v>
+        <v>310935</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>115789</v>
+        <v>114991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>175812</v>
+        <v>176783</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>175361</v>
+        <v>173574</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>127079</v>
+        <v>128723</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13033</v>
+        <v>12193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>39293</v>
+        <v>40188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34234</v>
+        <v>33902</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36538</v>
+        <v>35306</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>130879</v>
+        <v>132257</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>226373</v>
+        <v>222275</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>217510</v>
+        <v>218813</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>173310</v>
+        <v>169730</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>156485</v>
+        <v>156892</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>223357</v>
+        <v>223860</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>220838</v>
+        <v>219209</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>171514</v>
+        <v>170317</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29468</v>
+        <v>29835</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65207</v>
+        <v>65451</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56928</v>
+        <v>57780</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54969</v>
+        <v>55720</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>175831</v>
+        <v>178025</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>280079</v>
+        <v>279274</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>269543</v>
+        <v>269274</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>218515</v>
+        <v>215374</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>227212</v>
+        <v>225774</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>278108</v>
+        <v>282925</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>370032</v>
+        <v>369705</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>304178</v>
+        <v>304763</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>77551</v>
+        <v>76266</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>121444</v>
+        <v>120796</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>149390</v>
+        <v>148444</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>206223</v>
+        <v>205038</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>311779</v>
+        <v>308900</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>413741</v>
+        <v>415187</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>532763</v>
+        <v>532020</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>528250</v>
+        <v>528296</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>283613</v>
+        <v>283334</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>341227</v>
+        <v>342943</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>433982</v>
+        <v>432906</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>370444</v>
+        <v>372344</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111947</v>
+        <v>112381</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>164935</v>
+        <v>163425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>195489</v>
+        <v>193446</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>254436</v>
+        <v>250943</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>382871</v>
+        <v>379604</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>488210</v>
+        <v>491869</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>612987</v>
+        <v>616628</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>612695</v>
+        <v>611991</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>45657</v>
+        <v>46133</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>102080</v>
+        <v>102582</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>121110</v>
+        <v>123804</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>103222</v>
+        <v>103201</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33024</v>
+        <v>33178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>66086</v>
+        <v>65862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>81740</v>
+        <v>79173</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>139035</v>
+        <v>139980</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>86188</v>
+        <v>84136</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>175160</v>
+        <v>178632</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>214551</v>
+        <v>215813</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>255479</v>
+        <v>253071</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>74114</v>
+        <v>74889</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>141419</v>
+        <v>142664</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>163726</v>
+        <v>167253</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>146431</v>
+        <v>145187</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>59201</v>
+        <v>61009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>103839</v>
+        <v>102902</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>118400</v>
+        <v>117381</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>175523</v>
+        <v>175748</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>124564</v>
+        <v>124859</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>232321</v>
+        <v>231809</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>272340</v>
+        <v>270192</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>311219</v>
+        <v>313295</v>
       </c>
     </row>
     <row r="24">
@@ -2780,34 +2780,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2477</v>
+        <v>2342</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>59529</v>
+        <v>58002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>60033</v>
+        <v>58949</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>86046</v>
+        <v>87791</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>58845</v>
+        <v>57901</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>61504</v>
+        <v>60921</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>59503</v>
+        <v>59544</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>90201</v>
+        <v>91534</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>62789</v>
+        <v>63025</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7751</v>
+        <v>8843</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5578</v>
+        <v>6868</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10746</v>
+        <v>10216</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14562</v>
+        <v>15107</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>91541</v>
+        <v>91350</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>93300</v>
+        <v>93473</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>124106</v>
+        <v>125161</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>87453</v>
+        <v>87548</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>94393</v>
+        <v>94857</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>95342</v>
+        <v>93943</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>132144</v>
+        <v>131853</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>95678</v>
+        <v>95821</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>633593</v>
+        <v>633514</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>892109</v>
+        <v>887999</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1046588</v>
+        <v>1042034</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>943279</v>
+        <v>944753</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>365846</v>
+        <v>370741</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>481398</v>
+        <v>484991</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>614823</v>
+        <v>607671</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>735712</v>
+        <v>736022</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1025835</v>
+        <v>1021086</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1400235</v>
+        <v>1398374</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1678349</v>
+        <v>1678953</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1707738</v>
+        <v>1709679</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>729604</v>
+        <v>732807</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>994654</v>
+        <v>991909</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1154604</v>
+        <v>1152670</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1057521</v>
+        <v>1055857</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>441649</v>
+        <v>442175</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>571477</v>
+        <v>572764</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>704574</v>
+        <v>700692</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>819290</v>
+        <v>818335</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1151005</v>
+        <v>1147758</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1546106</v>
+        <v>1537350</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1824543</v>
+        <v>1834695</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1854423</v>
+        <v>1859622</v>
       </c>
     </row>
     <row r="32">
